--- a/live_data/2025年11年22日17点场.xlsx
+++ b/live_data/2025年11年22日17点场.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="481">
   <si>
     <t>timeMinute</t>
   </si>
@@ -425,9 +425,6 @@
     <t>1785</t>
   </si>
   <si>
-    <t>发的</t>
-  </si>
-  <si>
     <t>2025-11-22 17:15:00</t>
   </si>
   <si>
@@ -578,9 +575,6 @@
     <t>1681</t>
   </si>
   <si>
-    <t>大嫂</t>
-  </si>
-  <si>
     <t>2025-11-22 17:22:00</t>
   </si>
   <si>
@@ -710,9 +704,6 @@
     <t>1756</t>
   </si>
   <si>
-    <t>收到发生</t>
-  </si>
-  <si>
     <t>2025-11-22 17:28:00</t>
   </si>
   <si>
@@ -801,9 +792,6 @@
   </si>
   <si>
     <t>1829</t>
-  </si>
-  <si>
-    <t>是哒</t>
   </si>
   <si>
     <t>2025-11-22 17:33:00</t>
@@ -2646,10 +2634,13 @@
   <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="O32 P26"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="15" max="15" width="23.3046875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
@@ -2840,9 +2831,6 @@
       <c r="N5" t="s">
         <v>57</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
@@ -3006,9 +2994,6 @@
       <c r="N10" t="s">
         <v>99</v>
       </c>
-      <c r="O10">
-        <v>124</v>
-      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -3146,115 +3131,110 @@
       <c r="N14" t="s">
         <v>131</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" t="s">
         <v>133</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>134</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>135</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>136</v>
-      </c>
-      <c r="E15" t="s">
-        <v>137</v>
       </c>
       <c r="F15" t="s">
         <v>31</v>
       </c>
       <c r="G15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" t="s">
         <v>138</v>
       </c>
-      <c r="H15" t="s">
+      <c r="M15" t="s">
         <v>139</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>140</v>
-      </c>
-      <c r="N15" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
         <v>142</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>143</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
       </c>
       <c r="G16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" t="s">
         <v>146</v>
       </c>
-      <c r="H16" t="s">
+      <c r="M16" t="s">
         <v>147</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>148</v>
-      </c>
-      <c r="N16" t="s">
-        <v>149</v>
-      </c>
-      <c r="O16">
-        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
         <v>150</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>151</v>
-      </c>
-      <c r="C17" t="s">
-        <v>152</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F17" t="s">
         <v>30</v>
       </c>
       <c r="G17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="s">
         <v>154</v>
       </c>
-      <c r="H17" t="s">
-        <v>143</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>155</v>
-      </c>
-      <c r="N17" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
@@ -3263,65 +3243,65 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
         <v>43</v>
       </c>
       <c r="G18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" t="s">
         <v>159</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="s">
         <v>160</v>
       </c>
-      <c r="K18" t="s">
-        <v>158</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>161</v>
-      </c>
-      <c r="N18" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
         <v>163</v>
       </c>
-      <c r="B19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>164</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>165</v>
-      </c>
-      <c r="E19" t="s">
-        <v>166</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
       </c>
       <c r="G19" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" t="s">
         <v>167</v>
       </c>
-      <c r="H19" t="s">
+      <c r="M19" t="s">
         <v>168</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>169</v>
-      </c>
-      <c r="N19" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
@@ -3336,152 +3316,150 @@
         <v>105</v>
       </c>
       <c r="G20" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" t="s">
         <v>172</v>
       </c>
-      <c r="H20" t="s">
+      <c r="M20" t="s">
         <v>173</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>174</v>
-      </c>
-      <c r="N20" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" t="s">
         <v>176</v>
-      </c>
-      <c r="B21" t="s">
-        <v>177</v>
       </c>
       <c r="C21" t="s">
         <v>85</v>
       </c>
       <c r="D21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" t="s">
         <v>178</v>
-      </c>
-      <c r="E21" t="s">
-        <v>179</v>
       </c>
       <c r="F21" t="s">
         <v>43</v>
       </c>
       <c r="G21" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" t="s">
+        <v>142</v>
+      </c>
+      <c r="M21" t="s">
         <v>180</v>
       </c>
-      <c r="H21" t="s">
-        <v>143</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>181</v>
       </c>
-      <c r="N21" t="s">
-        <v>182</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F22" t="s">
         <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H22" t="s">
         <v>102</v>
       </c>
       <c r="M22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F23" t="s">
         <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H23" t="s">
         <v>89</v>
       </c>
       <c r="M23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" t="s">
         <v>196</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>197</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>198</v>
-      </c>
-      <c r="D24" t="s">
-        <v>199</v>
-      </c>
-      <c r="E24" t="s">
-        <v>200</v>
       </c>
       <c r="F24" t="s">
         <v>79</v>
       </c>
       <c r="G24" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" t="s">
         <v>201</v>
       </c>
-      <c r="H24" t="s">
+      <c r="N24" t="s">
         <v>202</v>
-      </c>
-      <c r="M24" t="s">
-        <v>203</v>
-      </c>
-      <c r="N24" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
         <v>126</v>
@@ -3490,228 +3468,226 @@
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F25" t="s">
         <v>79</v>
       </c>
       <c r="G25" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" t="s">
         <v>208</v>
       </c>
-      <c r="H25" t="s">
+      <c r="N25" t="s">
         <v>209</v>
-      </c>
-      <c r="M25" t="s">
-        <v>210</v>
-      </c>
-      <c r="N25" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C26" t="s">
         <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F26" t="s">
         <v>53</v>
       </c>
       <c r="G26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="s">
         <v>216</v>
       </c>
-      <c r="H26" t="s">
+      <c r="N26" t="s">
         <v>217</v>
-      </c>
-      <c r="M26" t="s">
-        <v>218</v>
-      </c>
-      <c r="N26" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C27" t="s">
         <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F27" t="s">
         <v>43</v>
       </c>
       <c r="G27" t="s">
+        <v>221</v>
+      </c>
+      <c r="H27" t="s">
+        <v>222</v>
+      </c>
+      <c r="M27" t="s">
         <v>223</v>
       </c>
-      <c r="H27" t="s">
+      <c r="N27" t="s">
         <v>224</v>
       </c>
-      <c r="M27" t="s">
-        <v>225</v>
-      </c>
-      <c r="N27" t="s">
-        <v>226</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E28" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F28" t="s">
         <v>53</v>
       </c>
       <c r="G28" t="s">
+        <v>228</v>
+      </c>
+      <c r="H28" t="s">
+        <v>229</v>
+      </c>
+      <c r="M28" t="s">
+        <v>230</v>
+      </c>
+      <c r="N28" t="s">
         <v>231</v>
-      </c>
-      <c r="H28" t="s">
-        <v>232</v>
-      </c>
-      <c r="M28" t="s">
-        <v>233</v>
-      </c>
-      <c r="N28" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F29" t="s">
         <v>105</v>
       </c>
       <c r="G29" t="s">
+        <v>235</v>
+      </c>
+      <c r="H29" t="s">
+        <v>236</v>
+      </c>
+      <c r="I29" t="s">
+        <v>237</v>
+      </c>
+      <c r="M29" t="s">
         <v>238</v>
       </c>
-      <c r="H29" t="s">
-        <v>239</v>
-      </c>
-      <c r="I29" t="s">
-        <v>240</v>
-      </c>
-      <c r="M29" t="s">
-        <v>241</v>
-      </c>
       <c r="N29" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F30" t="s">
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H30" t="s">
         <v>98</v>
       </c>
       <c r="M30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s">
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
         <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F31" t="s">
         <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N31" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
@@ -3723,33 +3699,31 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F32" t="s">
         <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H32" t="s">
         <v>85</v>
       </c>
       <c r="K32" t="s">
+        <v>251</v>
+      </c>
+      <c r="M32" t="s">
+        <v>253</v>
+      </c>
+      <c r="N32" t="s">
         <v>254</v>
       </c>
-      <c r="M32" t="s">
-        <v>256</v>
-      </c>
-      <c r="N32" t="s">
-        <v>257</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>258</v>
-      </c>
+      <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s">
         <v>76</v>
@@ -3758,129 +3732,129 @@
         <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E33" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F33" t="s">
         <v>105</v>
       </c>
       <c r="G33" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H33" t="s">
         <v>85</v>
       </c>
       <c r="M33" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N33" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E34" t="s">
+        <v>262</v>
+      </c>
+      <c r="F34" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" t="s">
+        <v>264</v>
+      </c>
+      <c r="H34" t="s">
+        <v>265</v>
+      </c>
+      <c r="M34" t="s">
         <v>266</v>
       </c>
-      <c r="F34" t="s">
+      <c r="N34" t="s">
         <v>267</v>
-      </c>
-      <c r="G34" t="s">
-        <v>268</v>
-      </c>
-      <c r="H34" t="s">
-        <v>269</v>
-      </c>
-      <c r="M34" t="s">
-        <v>270</v>
-      </c>
-      <c r="N34" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C35" t="s">
         <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E35" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F35" t="s">
         <v>53</v>
       </c>
       <c r="G35" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N35" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E36" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H36" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M36" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N36" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C37" t="s">
         <v>60</v>
@@ -3889,59 +3863,59 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F37" t="s">
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H37" t="s">
         <v>89</v>
       </c>
       <c r="M37" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N37" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E38" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F38" t="s">
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H38" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M38" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N38" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
@@ -3953,164 +3927,164 @@
         <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F39" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G39" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H39" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M39" t="s">
         <v>67</v>
       </c>
       <c r="N39" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D40" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E40" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F40" t="s">
         <v>105</v>
       </c>
       <c r="G40" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H40" t="s">
         <v>72</v>
       </c>
       <c r="M40" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N40" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B41" t="s">
         <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D41" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E41" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F41" t="s">
         <v>63</v>
       </c>
       <c r="G41" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H41" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K41" t="s">
+        <v>304</v>
+      </c>
+      <c r="M41" t="s">
+        <v>307</v>
+      </c>
+      <c r="N41" t="s">
         <v>308</v>
-      </c>
-      <c r="M41" t="s">
-        <v>311</v>
-      </c>
-      <c r="N41" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D42" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E42" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F42" t="s">
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H42" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M42" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N42" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s">
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D43" t="s">
         <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F43" t="s">
         <v>87</v>
       </c>
       <c r="G43" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J43" t="s">
         <v>32</v>
       </c>
       <c r="L43" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M43" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N43" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s">
         <v>72</v>
@@ -4122,123 +4096,123 @@
         <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F44" t="s">
         <v>87</v>
       </c>
       <c r="G44" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H44" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M44" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="N44" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E45" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F45" t="s">
         <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H45" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M45" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N45" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D46" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E46" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F46" t="s">
         <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H46" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M46" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N46" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s">
+        <v>337</v>
+      </c>
+      <c r="C47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" t="s">
+        <v>240</v>
+      </c>
+      <c r="E47" t="s">
         <v>341</v>
-      </c>
-      <c r="C47" t="s">
-        <v>236</v>
-      </c>
-      <c r="D47" t="s">
-        <v>243</v>
-      </c>
-      <c r="E47" t="s">
-        <v>345</v>
       </c>
       <c r="F47" t="s">
         <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H47" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N47" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s">
         <v>65</v>
@@ -4247,22 +4221,22 @@
         <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E48" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F48" t="s">
         <v>105</v>
       </c>
       <c r="G48" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H48" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M48" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N48" t="s">
         <v>131</v>
@@ -4270,103 +4244,103 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
       </c>
       <c r="C49" t="s">
+        <v>351</v>
+      </c>
+      <c r="D49" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49" t="s">
+        <v>352</v>
+      </c>
+      <c r="F49" t="s">
+        <v>204</v>
+      </c>
+      <c r="G49" t="s">
+        <v>353</v>
+      </c>
+      <c r="H49" t="s">
+        <v>354</v>
+      </c>
+      <c r="M49" t="s">
         <v>355</v>
       </c>
-      <c r="D49" t="s">
-        <v>274</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="N49" t="s">
         <v>356</v>
-      </c>
-      <c r="F49" t="s">
-        <v>206</v>
-      </c>
-      <c r="G49" t="s">
-        <v>357</v>
-      </c>
-      <c r="H49" t="s">
-        <v>358</v>
-      </c>
-      <c r="M49" t="s">
-        <v>359</v>
-      </c>
-      <c r="N49" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E50" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F50" t="s">
         <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H50" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M50" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="N50" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
         <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G51" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H51" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M51" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N51" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
@@ -4375,77 +4349,77 @@
         <v>81</v>
       </c>
       <c r="D52" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E52" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G52" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H52" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J52" t="s">
         <v>32</v>
       </c>
       <c r="K52" t="s">
+        <v>368</v>
+      </c>
+      <c r="M52" t="s">
+        <v>371</v>
+      </c>
+      <c r="N52" t="s">
         <v>372</v>
-      </c>
-      <c r="M52" t="s">
-        <v>375</v>
-      </c>
-      <c r="N52" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C53" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D53" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E53" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F53" t="s">
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H53" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I53" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J53" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K53" t="s">
+        <v>376</v>
+      </c>
+      <c r="M53" t="s">
         <v>380</v>
       </c>
-      <c r="M53" t="s">
-        <v>384</v>
-      </c>
       <c r="N53" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s">
         <v>118</v>
@@ -4454,36 +4428,36 @@
         <v>126</v>
       </c>
       <c r="D54" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E54" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F54" t="s">
         <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H54" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I54" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M54" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="N54" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C55" t="s">
         <v>51</v>
@@ -4498,117 +4472,117 @@
         <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H55" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M55" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="N55" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B56" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C56" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D56" t="s">
         <v>35</v>
       </c>
       <c r="E56" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F56" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G56" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H56" t="s">
         <v>102</v>
       </c>
       <c r="M56" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N56" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C57" t="s">
         <v>51</v>
       </c>
       <c r="D57" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E57" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F57" t="s">
         <v>77</v>
       </c>
       <c r="G57" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H57" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M57" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N57" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B58" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C58" t="s">
         <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E58" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F58" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G58" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H58" t="s">
         <v>93</v>
       </c>
       <c r="M58" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N58" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B59" t="s">
         <v>45</v>
@@ -4617,39 +4591,39 @@
         <v>77</v>
       </c>
       <c r="D59" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E59" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F59" t="s">
         <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M59" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="N59" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E60" t="s">
         <v>70</v>
@@ -4658,91 +4632,91 @@
         <v>79</v>
       </c>
       <c r="G60" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H60" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M60" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="N60" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B61" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E61" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F61" t="s">
         <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H61" t="s">
         <v>41</v>
       </c>
       <c r="M61" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N61" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C62" t="s">
         <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E62" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F62" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G62" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H62" t="s">
         <v>41</v>
       </c>
       <c r="M62" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N62" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B63" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s">
         <v>35</v>
@@ -4754,21 +4728,21 @@
         <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M63" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="N63" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
@@ -4777,97 +4751,97 @@
         <v>60</v>
       </c>
       <c r="D64" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E64" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F64" t="s">
         <v>105</v>
       </c>
       <c r="G64" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H64" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M64" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="N64" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C65" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D65" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E65" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F65" t="s">
         <v>87</v>
       </c>
       <c r="G65" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M65" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N65" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B66" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C66" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D66" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E66" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F66" t="s">
         <v>105</v>
       </c>
       <c r="G66" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M66" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="N66" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B67" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C67" t="s">
         <v>95</v>
@@ -4876,27 +4850,27 @@
         <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F67" t="s">
         <v>53</v>
       </c>
       <c r="G67" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H67" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M67" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="N67" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B68" t="s">
         <v>111</v>
@@ -4905,94 +4879,94 @@
         <v>35</v>
       </c>
       <c r="D68" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E68" t="s">
+        <v>452</v>
+      </c>
+      <c r="F68" t="s">
+        <v>422</v>
+      </c>
+      <c r="G68" t="s">
+        <v>453</v>
+      </c>
+      <c r="H68" t="s">
+        <v>454</v>
+      </c>
+      <c r="M68" t="s">
+        <v>455</v>
+      </c>
+      <c r="N68" t="s">
         <v>456</v>
-      </c>
-      <c r="F68" t="s">
-        <v>426</v>
-      </c>
-      <c r="G68" t="s">
-        <v>457</v>
-      </c>
-      <c r="H68" t="s">
-        <v>458</v>
-      </c>
-      <c r="M68" t="s">
-        <v>459</v>
-      </c>
-      <c r="N68" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B69" t="s">
         <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D69" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E69" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F69" t="s">
         <v>87</v>
       </c>
       <c r="G69" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H69" t="s">
         <v>81</v>
       </c>
       <c r="M69" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="N69" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D70" t="s">
         <v>30</v>
       </c>
       <c r="E70" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F70" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G70" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H70" t="s">
         <v>85</v>
       </c>
       <c r="M70" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="N70" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B71" t="s">
         <v>50</v>
@@ -5004,59 +4978,59 @@
         <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F71" t="s">
         <v>63</v>
       </c>
       <c r="G71" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M71" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="N71" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B72" t="s">
         <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D72" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E72" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F72" t="s">
         <v>87</v>
       </c>
       <c r="G72" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H72" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M72" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="N72" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B73" t="s">
         <v>60</v>
@@ -5071,24 +5045,24 @@
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G73" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M73" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="N73" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B74" t="s">
         <v>87</v>

--- a/live_data/2025年11年22日17点场.xlsx
+++ b/live_data/2025年11年22日17点场.xlsx
@@ -2633,7 +2633,7 @@
   <sheetPr/>
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>

--- a/live_data/2025年11年22日17点场.xlsx
+++ b/live_data/2025年11年22日17点场.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="485">
   <si>
     <t>timeMinute</t>
   </si>
@@ -203,6 +203,9 @@
     <t>586</t>
   </si>
   <si>
+    <t>ds f</t>
+  </si>
+  <si>
     <t>2025-11-22 17:06:00</t>
   </si>
   <si>
@@ -281,6 +284,9 @@
     <t>1190</t>
   </si>
   <si>
+    <t xml:space="preserve"> f</t>
+  </si>
+  <si>
     <t>2025-11-22 17:09:00</t>
   </si>
   <si>
@@ -425,6 +431,9 @@
     <t>1785</t>
   </si>
   <si>
+    <t xml:space="preserve">d </t>
+  </si>
+  <si>
     <t>2025-11-22 17:15:00</t>
   </si>
   <si>
@@ -573,6 +582,9 @@
   </si>
   <si>
     <t>1681</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> d</t>
   </si>
   <si>
     <t>2025-11-22 17:22:00</t>
@@ -2633,12 +2645,13 @@
   <sheetPr/>
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="16.8"/>
   <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="15" max="15" width="23.3046875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2831,1633 +2844,1643 @@
       <c r="N5" t="s">
         <v>57</v>
       </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
         <v>119</v>
       </c>
-      <c r="F13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" t="s">
-        <v>117</v>
-      </c>
       <c r="M13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
         <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
-      </c>
-      <c r="O14" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F15" t="s">
         <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F18" t="s">
         <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" t="s">
         <v>170</v>
       </c>
-      <c r="B20" t="s">
-        <v>167</v>
-      </c>
       <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F21" t="s">
         <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M21" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="N21" t="s">
-        <v>181</v>
-      </c>
-      <c r="O21" s="1"/>
+        <v>184</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F22" t="s">
         <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M22" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F23" t="s">
         <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M23" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C24" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E24" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H24" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N24" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E25" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H25" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M25" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E26" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F26" t="s">
         <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H26" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M26" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N26" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F27" t="s">
         <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H27" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M27" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N27" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F28" t="s">
         <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H28" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="N28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G29" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H29" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I29" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M29" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="N29" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E30" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F30" t="s">
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M30" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N30" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s">
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
         <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F31" t="s">
         <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H31" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M31" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N31" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" t="s">
+        <v>256</v>
+      </c>
+      <c r="H32" t="s">
         <v>87</v>
       </c>
-      <c r="G32" t="s">
-        <v>252</v>
-      </c>
-      <c r="H32" t="s">
-        <v>85</v>
-      </c>
       <c r="K32" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M32" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="N32" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E33" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G33" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M33" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="N33" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D34" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E34" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F34" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G34" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M34" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N34" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C35" t="s">
         <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E35" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F35" t="s">
         <v>53</v>
       </c>
       <c r="G35" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H35" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M35" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N35" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E36" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H36" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M36" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="N36" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F37" t="s">
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M37" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N37" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D38" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E38" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F38" t="s">
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H38" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M38" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N38" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
         <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G39" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H39" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N39" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D40" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E40" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G40" t="s">
+        <v>305</v>
+      </c>
+      <c r="H40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M40" t="s">
+        <v>306</v>
+      </c>
+      <c r="N40" t="s">
         <v>301</v>
-      </c>
-      <c r="H40" t="s">
-        <v>72</v>
-      </c>
-      <c r="M40" t="s">
-        <v>302</v>
-      </c>
-      <c r="N40" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E41" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G41" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H41" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K41" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M41" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="N41" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E42" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F42" t="s">
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H42" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M42" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="N42" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s">
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D43" t="s">
         <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H43" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J43" t="s">
         <v>32</v>
       </c>
       <c r="L43" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M43" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="N43" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
         <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H44" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M44" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="N44" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B45" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D45" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E45" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F45" t="s">
         <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H45" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M45" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N45" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D46" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E46" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F46" t="s">
         <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H46" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M46" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="N46" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D47" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E47" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F47" t="s">
         <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H47" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M47" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N47" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E48" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G48" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H48" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M48" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="N48" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E49" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F49" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G49" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H49" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M49" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="N49" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E50" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G50" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H50" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M50" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="N50" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D51" t="s">
         <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F51" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G51" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H51" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M51" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="N51" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E52" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F52" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G52" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H52" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="J52" t="s">
         <v>32</v>
       </c>
       <c r="K52" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M52" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="N52" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C53" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D53" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E53" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F53" t="s">
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H53" t="s">
+        <v>382</v>
+      </c>
+      <c r="I53" t="s">
+        <v>383</v>
+      </c>
+      <c r="J53" t="s">
         <v>378</v>
       </c>
-      <c r="I53" t="s">
-        <v>379</v>
-      </c>
-      <c r="J53" t="s">
-        <v>374</v>
-      </c>
       <c r="K53" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M53" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N53" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E54" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F54" t="s">
         <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H54" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I54" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M54" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="N54" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B55" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C55" t="s">
         <v>51</v>
@@ -4466,257 +4489,257 @@
         <v>31</v>
       </c>
       <c r="E55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F55" t="s">
         <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H55" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M55" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="N55" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B56" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C56" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D56" t="s">
         <v>35</v>
       </c>
       <c r="E56" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F56" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G56" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H56" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M56" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="N56" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B57" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C57" t="s">
         <v>51</v>
       </c>
       <c r="D57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E57" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H57" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M57" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="N57" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B58" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C58" t="s">
         <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E58" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F58" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G58" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M58" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="N58" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s">
         <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E59" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F59" t="s">
         <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H59" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M59" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="N59" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H60" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M60" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="N60" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B61" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E61" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F61" t="s">
         <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H61" t="s">
         <v>41</v>
       </c>
       <c r="M61" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="N61" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B62" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C62" t="s">
         <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="E62" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F62" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G62" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H62" t="s">
         <v>41</v>
       </c>
       <c r="M62" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="N62" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B63" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D63" t="s">
         <v>35</v>
@@ -4728,312 +4751,312 @@
         <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H63" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M63" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N63" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E64" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F64" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G64" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H64" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M64" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="N64" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C65" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D65" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E65" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F65" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H65" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M65" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="N65" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B66" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C66" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D66" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E66" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F66" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G66" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H66" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M66" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="N66" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B67" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D67" t="s">
         <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F67" t="s">
         <v>53</v>
       </c>
       <c r="G67" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H67" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M67" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="N67" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B68" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
         <v>35</v>
       </c>
       <c r="D68" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E68" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F68" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G68" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H68" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M68" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="N68" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D69" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E69" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M69" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="N69" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D70" t="s">
         <v>30</v>
       </c>
       <c r="E70" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F70" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G70" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M70" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N70" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B71" t="s">
         <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
         <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G71" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H71" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M71" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="N71" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D72" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E72" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H72" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M72" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="N72" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
         <v>35</v>
@@ -5045,30 +5068,30 @@
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G73" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H73" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M73" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="N73" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D74" t="s">
         <v>33</v>
